--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192786.3272348535</v>
+        <v>217543.7019046164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4214499.619253951</v>
+        <v>4760793.190791372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23176748.5266998</v>
+        <v>23055266.56396488</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4591350.834811693</v>
+        <v>4607554.393357424</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
-        <v>262.1171336583936</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N2" t="n">
-        <v>260.6727596612894</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
         <v>246.758517458259</v>
@@ -8058,22 +8060,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>158.8643559162101</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
-        <v>156.5283879628043</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M3" t="n">
-        <v>158.8073274317979</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2543769669952</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>160.2613470196622</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>152.4484465568465</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8219,13 +8221,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>255.8266834221102</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6294943148315</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N5" t="n">
-        <v>243.9183330758522</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8295,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>150.7517341174952</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L6" t="n">
-        <v>145.6199667947194</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M6" t="n">
-        <v>146.0777144456295</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N6" t="n">
-        <v>132.1878490032285</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O6" t="n">
-        <v>148.3080266862594</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P6" t="n">
-        <v>142.8548531659551</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8690,25 +8692,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L11" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M11" t="n">
-        <v>78.83188855375113</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N11" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O11" t="n">
-        <v>86.70771710415687</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P11" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>68.68019772140313</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L12" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M12" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P12" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.13336211952077</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M13" t="n">
-        <v>88.5232124679478</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N13" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O13" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8927,25 +8929,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L14" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M14" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N14" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O14" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P14" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L15" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M15" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P15" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M16" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N16" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O16" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9164,25 +9166,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L17" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M17" t="n">
-        <v>78.83188855375113</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N17" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O17" t="n">
-        <v>86.70771710415687</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P17" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>68.68019772140313</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L18" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M18" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P18" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.13336211952077</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M19" t="n">
-        <v>88.5232124679478</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N19" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O19" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9401,25 +9403,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L20" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M20" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N20" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O20" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P20" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L21" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M21" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P21" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M22" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N22" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O22" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9638,25 +9640,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L23" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M23" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N23" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O23" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P23" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L24" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M24" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P24" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M25" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N25" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O25" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9875,25 +9877,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L26" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M26" t="n">
-        <v>78.83188855375113</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N26" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O26" t="n">
-        <v>86.70771710415687</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P26" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>68.68019772140313</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L27" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M27" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P27" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q27" t="n">
-        <v>92.13336211952077</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M28" t="n">
-        <v>88.5232124679478</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N28" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O28" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10112,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L29" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M29" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N29" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O29" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P29" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L30" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M30" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P30" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q30" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M31" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N31" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O31" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10349,25 +10351,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M32" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N32" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O32" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P32" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L33" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M33" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P33" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M34" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N34" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O34" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10586,25 +10588,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L35" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M35" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N35" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O35" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P35" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L36" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M36" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P36" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q36" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M37" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N37" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O37" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10823,25 +10825,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L38" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M38" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N38" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O38" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P38" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L39" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M39" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P39" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q39" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M40" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N40" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O40" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11060,25 +11062,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>122.0365346358061</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L41" t="n">
-        <v>105.9222139730819</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M41" t="n">
-        <v>78.83188855375113</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N41" t="n">
-        <v>74.42176767202952</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O41" t="n">
-        <v>86.70771710415687</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P41" t="n">
-        <v>116.5194153913583</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>68.68019772140313</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L42" t="n">
-        <v>35.26465785350914</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M42" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>27.38196984081287</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P42" t="n">
-        <v>45.80103151799199</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q42" t="n">
-        <v>92.13336211952077</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>87.76745019286051</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M43" t="n">
-        <v>88.5232124679478</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N43" t="n">
-        <v>76.73531661208723</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O43" t="n">
-        <v>95.90977625558899</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>97.38162427947184</v>
       </c>
       <c r="K44" t="n">
-        <v>122.0365346358061</v>
+        <v>83.42355640483251</v>
       </c>
       <c r="L44" t="n">
-        <v>105.9222139730819</v>
+        <v>58.01940008446331</v>
       </c>
       <c r="M44" t="n">
-        <v>78.83188855375113</v>
+        <v>25.53077821856496</v>
       </c>
       <c r="N44" t="n">
-        <v>74.42176767202952</v>
+        <v>20.25818964702484</v>
       </c>
       <c r="O44" t="n">
-        <v>86.70771710415687</v>
+        <v>35.5625862733917</v>
       </c>
       <c r="P44" t="n">
-        <v>116.5194153913583</v>
+        <v>72.86822951172195</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>114.085400487321</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,28 +11375,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>81.18949827734528</v>
       </c>
       <c r="K45" t="n">
-        <v>68.68019772140313</v>
+        <v>42.4537780023314</v>
       </c>
       <c r="L45" t="n">
-        <v>35.26465785350914</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>45.80103151799199</v>
+        <v>14.78693852483815</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.13336211952077</v>
+        <v>71.40126228781629</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>87.76745019286051</v>
+        <v>67.52371566667536</v>
       </c>
       <c r="M46" t="n">
-        <v>88.5232124679478</v>
+        <v>67.17903279110969</v>
       </c>
       <c r="N46" t="n">
-        <v>76.73531661208723</v>
+        <v>55.89865382137701</v>
       </c>
       <c r="O46" t="n">
-        <v>95.90977625558899</v>
+        <v>76.66374565676749</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22559,22 +22561,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>419.1372257337943</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H2" t="n">
-        <v>350.0840728010472</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I2" t="n">
-        <v>252.5390011750733</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>102.1633490996273</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>44.76782608393461</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.82072992502536</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>58.0961346578143</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.0060719774896</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>213.6669190178523</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
-        <v>234.3316595809324</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T2" t="n">
-        <v>223.7749849055099</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9046118134526</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H3" t="n">
-        <v>127.2808586212757</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>112.8724349482959</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>67.59235497006948</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.29425231795664</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>144.6542915277517</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>194.5628574600357</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
-        <v>215.61586546681</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.8349197050291</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H4" t="n">
-        <v>167.0170666797881</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I4" t="n">
-        <v>168.8870673881104</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>129.7236433787886</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>82.61516433249618</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>52.09548622449577</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>46.24466908004986</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>37.04796687835205</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>56.43963860165199</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>74.70280003544025</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.4497818638882</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
-        <v>209.4615981681609</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S4" t="n">
-        <v>237.7758219951765</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T4" t="n">
-        <v>224.3347225012506</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22796,19 +22798,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.0433278923953</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H5" t="n">
-        <v>349.1224415328191</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I5" t="n">
-        <v>248.9190046445362</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J5" t="n">
-        <v>94.19388718318407</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K5" t="n">
-        <v>32.82366854106931</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P5" t="n">
-        <v>44.59350769232816</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.8661614571072</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R5" t="n">
-        <v>207.7686087380687</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S5" t="n">
-        <v>232.1919625200514</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T5" t="n">
-        <v>223.3639471047855</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.8543720391606</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H6" t="n">
-        <v>126.7956481695613</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I6" t="n">
-        <v>111.1426883334193</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J6" t="n">
-        <v>62.8457980489157</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.88118919956569</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R6" t="n">
-        <v>141.5350185239054</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S6" t="n">
-        <v>193.6296756875513</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T6" t="n">
-        <v>215.4133639204314</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.7928003659262</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6425874648544</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6204239903589</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J7" t="n">
-        <v>126.7458061042081</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K7" t="n">
-        <v>77.72166293489558</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L7" t="n">
-        <v>45.8334892091311</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64227122411658</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N7" t="n">
-        <v>30.60255928634805</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O7" t="n">
-        <v>50.48626147098734</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P7" t="n">
-        <v>69.60865742247636</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.9228615686379</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R7" t="n">
-        <v>207.5677595208579</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S7" t="n">
-        <v>237.0417967855364</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T7" t="n">
-        <v>224.154758052356</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23206,7 +23208,7 @@
         <v>77.72166293489558</v>
       </c>
       <c r="L10" t="n">
-        <v>45.8334892091311</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M10" t="n">
         <v>39.64227122411658</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I11" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J11" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S11" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T11" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U11" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H12" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I12" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J12" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H13" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I13" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J13" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K13" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S13" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T13" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H14" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I14" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J14" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S14" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T14" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U14" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H15" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S15" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T15" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H16" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I16" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J16" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K16" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R16" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S16" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T16" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H17" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I17" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J17" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S17" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T17" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U17" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H18" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I18" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J18" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H19" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I19" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J19" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K19" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R19" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S19" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T19" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H20" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I20" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J20" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S20" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T20" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U20" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H21" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I21" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H22" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I22" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J22" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K22" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R22" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S22" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T22" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H23" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I23" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J23" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S23" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T23" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U23" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H24" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I24" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J24" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S24" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T24" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H25" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I25" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J25" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K25" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R25" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S25" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T25" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H26" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I26" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J26" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S26" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T26" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U26" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H27" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I27" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J27" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S27" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T27" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H28" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I28" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J28" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K28" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R28" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S28" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T28" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H29" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I29" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J29" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S29" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T29" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U29" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H30" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I30" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J30" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S30" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T30" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H31" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I31" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J31" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K31" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R31" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S31" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T31" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H32" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I32" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J32" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S32" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T32" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U32" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H33" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I33" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J33" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S33" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T33" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H34" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I34" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J34" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K34" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R34" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S34" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T34" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H35" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I35" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J35" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S35" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T35" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U35" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H36" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I36" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J36" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S36" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T36" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H37" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I37" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J37" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K37" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R37" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S37" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T37" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H38" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I38" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J38" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S38" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T38" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U38" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H39" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I39" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J39" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S39" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T39" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H40" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I40" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J40" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K40" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25588,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R40" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S40" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T40" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H41" t="n">
-        <v>339.3940753414476</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I41" t="n">
-        <v>212.2972214058836</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J41" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>148.0982088582942</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S41" t="n">
-        <v>210.5456649893907</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T41" t="n">
-        <v>219.2056731633497</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U41" t="n">
-        <v>250.09096030272</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H42" t="n">
-        <v>121.887004794376</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I42" t="n">
-        <v>93.64366449363538</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J42" t="n">
-        <v>14.8271391275419</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>109.9788170619971</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S42" t="n">
-        <v>184.1891195141138</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T42" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H43" t="n">
-        <v>162.8541593486954</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I43" t="n">
-        <v>154.8063951475636</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J43" t="n">
-        <v>96.62044264882138</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K43" t="n">
-        <v>28.2164366317142</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>18.07363936789694</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.24268633557031</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R43" t="n">
-        <v>188.4086946307534</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S43" t="n">
-        <v>229.6160128400592</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T43" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.0934080885264</v>
+        <v>417.7898558879744</v>
       </c>
       <c r="H44" t="n">
-        <v>339.3940753414476</v>
+        <v>336.2853213675438</v>
       </c>
       <c r="I44" t="n">
-        <v>212.2972214058836</v>
+        <v>200.5945251941005</v>
       </c>
       <c r="J44" t="n">
-        <v>13.57063122957307</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>148.0982088582942</v>
+        <v>129.0301979403661</v>
       </c>
       <c r="S44" t="n">
-        <v>210.5456649893907</v>
+        <v>203.6284692193107</v>
       </c>
       <c r="T44" t="n">
-        <v>219.2056731633497</v>
+        <v>217.8768734054331</v>
       </c>
       <c r="U44" t="n">
-        <v>250.09096030272</v>
+        <v>250.0666761266758</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.3461201365529</v>
+        <v>148.1837053907575</v>
       </c>
       <c r="H45" t="n">
-        <v>121.887004794376</v>
+        <v>120.3184202757733</v>
       </c>
       <c r="I45" t="n">
-        <v>93.64366449363538</v>
+        <v>88.05175328971565</v>
       </c>
       <c r="J45" t="n">
-        <v>14.8271391275419</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>109.9788170619971</v>
+        <v>99.89485591515788</v>
       </c>
       <c r="S45" t="n">
-        <v>184.1891195141138</v>
+        <v>181.1723368455023</v>
       </c>
       <c r="T45" t="n">
-        <v>213.3647520849204</v>
+        <v>212.7101066841048</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1911682413709</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.3666990440678</v>
+        <v>168.2305359770579</v>
       </c>
       <c r="H46" t="n">
-        <v>162.8541593486954</v>
+        <v>161.6435458983708</v>
       </c>
       <c r="I46" t="n">
-        <v>154.8063951475636</v>
+        <v>150.711600368756</v>
       </c>
       <c r="J46" t="n">
-        <v>96.62044264882138</v>
+        <v>86.99371381121946</v>
       </c>
       <c r="K46" t="n">
-        <v>28.2164366317142</v>
+        <v>12.39676393728799</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>18.07363936789694</v>
+        <v>1.605335336077985</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.24268633557031</v>
+        <v>87.84088624258442</v>
       </c>
       <c r="R46" t="n">
-        <v>188.4086946307534</v>
+        <v>182.2863079995616</v>
       </c>
       <c r="S46" t="n">
-        <v>229.6160128400592</v>
+        <v>227.2430619358953</v>
       </c>
       <c r="T46" t="n">
-        <v>222.3341433135066</v>
+        <v>221.7523556635551</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6309075712877</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>351765.2743621995</v>
+        <v>338464.1992716803</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361478.1971124064</v>
+        <v>351765.2743621995</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410025.57020591</v>
+        <v>414403.5922161597</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410025.57020591</v>
+        <v>415885.4946851619</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72033.99017712973</v>
+        <v>68750.54047706009</v>
       </c>
       <c r="C2" t="n">
+        <v>72033.99017712972</v>
+      </c>
+      <c r="D2" t="n">
         <v>74514.21183964789</v>
       </c>
-      <c r="D2" t="n">
-        <v>74514.21183964785</v>
-      </c>
       <c r="E2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416061</v>
       </c>
       <c r="F2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416065</v>
       </c>
       <c r="G2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416064</v>
       </c>
       <c r="H2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416061</v>
       </c>
       <c r="I2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416063</v>
       </c>
       <c r="J2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416063</v>
       </c>
       <c r="K2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416064</v>
       </c>
       <c r="L2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416063</v>
       </c>
       <c r="M2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416063</v>
       </c>
       <c r="N2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416063</v>
       </c>
       <c r="O2" t="n">
-        <v>89507.35027983013</v>
+        <v>91220.32071416064</v>
       </c>
       <c r="P2" t="n">
-        <v>89507.35027983013</v>
+        <v>92221.00202031924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25807.49035540249</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21269.01109069894</v>
+        <v>24387.74936889624</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20003.33720355308</v>
       </c>
       <c r="E3" t="n">
-        <v>189838.1445216702</v>
+        <v>221791.9948361786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23784.67912583795</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35923.93281632339</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="C4" t="n">
-        <v>34762.03750779631</v>
+        <v>35923.93281632338</v>
       </c>
       <c r="D4" t="n">
-        <v>34762.03750779631</v>
+        <v>34762.0375077963</v>
       </c>
       <c r="E4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="F4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="G4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="H4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="I4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="J4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="K4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="L4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="M4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="N4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="O4" t="n">
-        <v>17570.26513280862</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="P4" t="n">
-        <v>17570.26513280862</v>
+        <v>11531.87044222373</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>33627.6</v>
+      </c>
+      <c r="C5" t="n">
         <v>34211.44775812258</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34720.63227756931</v>
       </c>
       <c r="D5" t="n">
         <v>34720.63227756931</v>
       </c>
       <c r="E5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="F5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="G5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="H5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="I5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="J5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="K5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="L5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="M5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="N5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="O5" t="n">
-        <v>6244.209893998943</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="P5" t="n">
-        <v>6244.209893998943</v>
+        <v>7890.297589542603</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23908.88075271872</v>
+        <v>-1896.581318279961</v>
       </c>
       <c r="C6" t="n">
-        <v>-16237.46903641667</v>
+        <v>-22489.13976621249</v>
       </c>
       <c r="D6" t="n">
-        <v>5031.542054282225</v>
+        <v>-14971.79514927079</v>
       </c>
       <c r="E6" t="n">
-        <v>-124145.2692686476</v>
+        <v>-152120.508828631</v>
       </c>
       <c r="F6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.4860075476</v>
       </c>
       <c r="G6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754759</v>
       </c>
       <c r="H6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754756</v>
       </c>
       <c r="I6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754757</v>
       </c>
       <c r="J6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754757</v>
       </c>
       <c r="K6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754759</v>
       </c>
       <c r="L6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754757</v>
       </c>
       <c r="M6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754757</v>
       </c>
       <c r="N6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754757</v>
       </c>
       <c r="O6" t="n">
-        <v>65692.87525302258</v>
+        <v>69671.48600754759</v>
       </c>
       <c r="P6" t="n">
-        <v>65692.87525302258</v>
+        <v>49014.15486271496</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>26.78200725332938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50.1390953013448</v>
       </c>
       <c r="D3" t="n">
         <v>50.1390953013448</v>
       </c>
       <c r="E3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="G3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="H3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="J3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="K3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="L3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="M3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="N3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="O3" t="n">
-        <v>286.431646513713</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="P3" t="n">
-        <v>286.431646513713</v>
+        <v>361.9402564010368</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>26.78200725332938</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>23.35708804801542</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>236.2925512123682</v>
+        <v>276.0656791624858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>35.7354819372062</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1076663608174045</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.102638117721244</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.150807375412989</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.138047791426191</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.69556484482692</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.90527087887908</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19.21117792655154</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.14057055117347</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>15.48255726849379</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.62675572172049</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.763197037696289</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.453447197126606</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4713094944781883</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008613308865392355</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05760658163923678</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.55635830162105</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.983384499421091</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.442558662678946</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.30219963250781</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.50795536864218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.59619395306451</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.9825117746715</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13.70607120255999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>11.00033048863637</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.353429614159419</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.576661270548404</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.070016987904244</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2321949496774499</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003789906686791895</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04829542291583986</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4293902146517402</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.452375081869075</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.414486400149878</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.611050044222121</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.180212239687683</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.570527066707514</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7.390516854021208</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.826338504504349</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.841111877021211</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.044083095252736</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.171537834015854</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.841657506633318</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2063531706404066</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00263429579540945</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H5" t="n">
-        <v>2.064269385949336</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I5" t="n">
-        <v>7.770803905950134</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J5" t="n">
-        <v>17.1075097078694</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K5" t="n">
-        <v>25.63972238769222</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L5" t="n">
-        <v>31.80834284127425</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
-        <v>35.39291022244124</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N5" t="n">
-        <v>35.96560451198877</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P5" t="n">
-        <v>28.98518423397994</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.76666624210291</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R5" t="n">
-        <v>12.6615073174798</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S5" t="n">
-        <v>4.593144258007618</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8823472952025601</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H6" t="n">
-        <v>1.041568753335484</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I6" t="n">
-        <v>3.713131114297705</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J6" t="n">
-        <v>10.18911558383272</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K6" t="n">
-        <v>17.41482143122275</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L6" t="n">
-        <v>23.41637653672712</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M6" t="n">
-        <v>27.32580693923292</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N6" t="n">
-        <v>28.04903973843817</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O6" t="n">
-        <v>25.65939153596275</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P6" t="n">
-        <v>20.59392387952783</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.76649273255037</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R6" t="n">
-        <v>6.695934274394691</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S6" t="n">
-        <v>2.003198760388633</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8038694295854959</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I7" t="n">
-        <v>2.71901847962047</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J7" t="n">
-        <v>6.392323674730466</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K7" t="n">
-        <v>10.50455144182273</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L7" t="n">
-        <v>13.44220925505234</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M7" t="n">
-        <v>14.17292492264079</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N7" t="n">
-        <v>13.83592444602521</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O7" t="n">
-        <v>12.779715635169</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P7" t="n">
-        <v>10.9352544899851</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.571003390503065</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R7" t="n">
-        <v>4.065376481318874</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S7" t="n">
-        <v>1.575682716273409</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H8" t="n">
         <v>2.064269385949336</v>
@@ -31610,10 +31612,10 @@
         <v>23.41637653672712</v>
       </c>
       <c r="M9" t="n">
-        <v>27.32580693923292</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N9" t="n">
-        <v>28.04903973843817</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O9" t="n">
         <v>25.65939153596275</v>
@@ -31674,10 +31676,10 @@
         <v>0.09041476201881848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8038694295854959</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I10" t="n">
-        <v>2.71901847962047</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J10" t="n">
         <v>6.392323674730466</v>
@@ -31692,7 +31694,7 @@
         <v>14.17292492264079</v>
       </c>
       <c r="N10" t="n">
-        <v>13.83592444602521</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O10" t="n">
         <v>12.779715635169</v>
@@ -31701,10 +31703,10 @@
         <v>10.9352544899851</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.571003390503065</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R10" t="n">
-        <v>4.065376481318874</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S10" t="n">
         <v>1.575682716273409</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H11" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I11" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J11" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L11" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M11" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N11" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P11" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R11" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S11" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T11" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H12" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I12" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J12" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K12" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L12" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M12" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P12" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R12" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S12" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T12" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H13" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I13" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J13" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K13" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L13" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M13" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N13" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O13" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P13" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R13" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S13" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T13" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H14" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I14" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J14" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K14" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L14" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M14" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N14" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P14" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R14" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S14" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T14" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H15" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I15" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K15" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L15" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M15" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P15" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R15" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S15" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T15" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H16" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I16" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J16" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L16" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M16" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N16" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O16" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P16" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R16" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S16" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T16" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H17" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I17" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J17" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L17" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M17" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N17" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P17" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R17" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S17" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T17" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H18" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I18" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J18" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K18" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L18" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M18" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P18" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R18" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S18" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T18" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H19" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I19" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J19" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K19" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L19" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M19" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N19" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O19" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P19" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R19" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S19" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T19" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H20" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I20" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J20" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K20" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L20" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M20" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N20" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O20" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R20" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S20" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T20" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H21" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I21" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J21" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K21" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L21" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M21" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P21" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R21" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S21" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T21" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H22" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I22" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J22" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K22" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L22" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M22" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N22" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O22" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P22" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R22" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S22" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T22" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H23" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I23" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J23" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K23" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L23" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M23" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N23" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O23" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R23" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S23" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T23" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H24" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I24" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J24" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K24" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L24" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M24" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P24" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R24" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S24" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T24" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H25" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I25" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J25" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K25" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L25" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M25" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N25" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O25" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P25" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R25" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S25" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T25" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H26" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I26" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J26" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K26" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L26" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M26" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N26" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O26" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P26" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R26" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S26" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T26" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H27" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I27" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J27" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K27" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L27" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M27" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P27" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R27" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S27" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T27" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H28" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I28" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J28" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K28" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L28" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M28" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N28" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O28" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P28" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R28" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S28" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T28" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H29" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I29" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J29" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L29" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M29" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N29" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O29" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P29" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R29" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S29" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T29" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H30" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I30" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J30" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K30" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L30" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M30" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P30" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R30" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S30" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T30" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H31" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I31" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J31" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K31" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L31" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M31" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N31" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O31" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P31" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R31" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S31" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T31" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H32" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I32" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J32" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K32" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L32" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M32" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N32" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O32" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P32" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R32" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S32" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T32" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H33" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I33" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J33" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K33" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L33" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M33" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P33" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R33" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S33" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T33" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H34" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I34" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J34" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K34" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L34" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M34" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N34" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O34" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P34" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R34" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S34" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T34" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H35" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I35" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J35" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K35" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L35" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M35" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N35" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O35" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P35" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q35" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R35" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S35" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T35" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H36" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I36" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J36" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K36" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L36" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M36" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P36" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R36" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S36" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T36" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H37" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I37" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J37" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K37" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L37" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M37" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N37" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O37" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P37" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R37" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S37" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T37" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H38" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I38" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J38" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K38" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L38" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M38" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N38" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q38" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R38" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S38" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T38" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H39" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I39" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J39" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K39" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L39" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M39" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P39" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R39" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S39" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T39" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H40" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I40" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J40" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K40" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L40" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M40" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N40" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O40" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P40" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R40" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S40" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T40" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.151484006085277</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H41" t="n">
-        <v>11.79263557732085</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I41" t="n">
-        <v>44.3925871446027</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J41" t="n">
-        <v>97.7307656614804</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K41" t="n">
-        <v>146.4730836390702</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L41" t="n">
-        <v>181.7128122903026</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M41" t="n">
-        <v>202.1905159835216</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N41" t="n">
-        <v>205.4621699158114</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O41" t="n">
-        <v>194.0121008303009</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5848394300706</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q41" t="n">
-        <v>124.3473184621416</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R41" t="n">
-        <v>72.33190719725437</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S41" t="n">
-        <v>26.23944178866828</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T41" t="n">
-        <v>5.040621236638304</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H42" t="n">
-        <v>5.950212128520717</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I42" t="n">
-        <v>21.21215495408158</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J42" t="n">
-        <v>58.20777450520653</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K42" t="n">
-        <v>99.48635782731482</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L42" t="n">
-        <v>133.7716854779374</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>146.5854483814093</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P42" t="n">
-        <v>117.6477455274909</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.6444022654255</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R42" t="n">
-        <v>38.25213573630304</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S42" t="n">
-        <v>11.44375493382617</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T42" t="n">
-        <v>2.483308331567001</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H43" t="n">
-        <v>4.59229754574445</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I43" t="n">
-        <v>15.53304732241578</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J43" t="n">
-        <v>36.51768713011714</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K43" t="n">
-        <v>60.00977774500411</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L43" t="n">
-        <v>76.79185487025021</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M43" t="n">
-        <v>80.96624394813036</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N43" t="n">
-        <v>79.04104763549726</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O43" t="n">
-        <v>73.00720065565919</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P43" t="n">
-        <v>62.47027254456452</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.25117862357066</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R43" t="n">
-        <v>23.22444137142334</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S43" t="n">
-        <v>9.001466661750614</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T43" t="n">
-        <v>2.206932358384345</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.151484006085277</v>
+        <v>1.455036206637333</v>
       </c>
       <c r="H44" t="n">
-        <v>11.79263557732085</v>
+        <v>14.90138955122459</v>
       </c>
       <c r="I44" t="n">
-        <v>44.3925871446027</v>
+        <v>56.09528335638583</v>
       </c>
       <c r="J44" t="n">
-        <v>97.7307656614804</v>
+        <v>123.4943792430854</v>
       </c>
       <c r="K44" t="n">
-        <v>146.4730836390702</v>
+        <v>185.0860618700438</v>
       </c>
       <c r="L44" t="n">
-        <v>181.7128122903026</v>
+        <v>229.6156261789211</v>
       </c>
       <c r="M44" t="n">
-        <v>202.1905159835216</v>
+        <v>255.4916263187078</v>
       </c>
       <c r="N44" t="n">
-        <v>205.4621699158114</v>
+        <v>259.6257479408161</v>
       </c>
       <c r="O44" t="n">
-        <v>194.0121008303009</v>
+        <v>245.1572316610661</v>
       </c>
       <c r="P44" t="n">
-        <v>165.5848394300706</v>
+        <v>209.2360253097069</v>
       </c>
       <c r="Q44" t="n">
-        <v>124.3473184621416</v>
+        <v>157.1275411595074</v>
       </c>
       <c r="R44" t="n">
-        <v>72.33190719725437</v>
+        <v>91.39991811518244</v>
       </c>
       <c r="S44" t="n">
-        <v>26.23944178866828</v>
+        <v>33.15663755874826</v>
       </c>
       <c r="T44" t="n">
-        <v>5.040621236638304</v>
+        <v>6.369420994554928</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1164028965309866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.7785130043343057</v>
       </c>
       <c r="H45" t="n">
-        <v>5.950212128520717</v>
+        <v>7.518796647123427</v>
       </c>
       <c r="I45" t="n">
-        <v>21.21215495408158</v>
+        <v>26.80406615800132</v>
       </c>
       <c r="J45" t="n">
-        <v>58.20777450520653</v>
+        <v>73.55240625598807</v>
       </c>
       <c r="K45" t="n">
-        <v>99.48635782731482</v>
+        <v>125.7127775463865</v>
       </c>
       <c r="L45" t="n">
-        <v>133.7716854779374</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>146.5854483814093</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>117.6477455274909</v>
+        <v>148.6618385206447</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.6444022654255</v>
+        <v>99.37650209712997</v>
       </c>
       <c r="R45" t="n">
-        <v>38.25213573630304</v>
+        <v>48.33609688314226</v>
       </c>
       <c r="S45" t="n">
-        <v>11.44375493382617</v>
+        <v>14.46053760243764</v>
       </c>
       <c r="T45" t="n">
-        <v>2.483308331567001</v>
+        <v>3.137953732382573</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.0512179608114675</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.6526791508871155</v>
       </c>
       <c r="H46" t="n">
-        <v>4.59229754574445</v>
+        <v>5.802910996069086</v>
       </c>
       <c r="I46" t="n">
-        <v>15.53304732241578</v>
+        <v>19.62784210122344</v>
       </c>
       <c r="J46" t="n">
-        <v>36.51768713011714</v>
+        <v>46.14441596771906</v>
       </c>
       <c r="K46" t="n">
-        <v>60.00977774500411</v>
+        <v>75.82945043943032</v>
       </c>
       <c r="L46" t="n">
-        <v>76.79185487025021</v>
+        <v>97.03558939643536</v>
       </c>
       <c r="M46" t="n">
-        <v>80.96624394813036</v>
+        <v>102.3104236249685</v>
       </c>
       <c r="N46" t="n">
-        <v>79.04104763549726</v>
+        <v>99.87771042620749</v>
       </c>
       <c r="O46" t="n">
-        <v>73.00720065565919</v>
+        <v>92.2532312544807</v>
       </c>
       <c r="P46" t="n">
-        <v>62.47027254456452</v>
+        <v>78.93857657638347</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.25117862357066</v>
+        <v>54.65297871655656</v>
       </c>
       <c r="R46" t="n">
-        <v>23.22444137142334</v>
+        <v>29.3468280026152</v>
       </c>
       <c r="S46" t="n">
-        <v>9.001466661750614</v>
+        <v>11.37441756591455</v>
       </c>
       <c r="T46" t="n">
-        <v>2.206932358384345</v>
+        <v>2.788720008335857</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03560068095747907</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217543.7019046164</v>
+        <v>87316.95150964452</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4760793.190791372</v>
+        <v>4939161.347755955</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23055266.56396488</v>
+        <v>22604735.7872361</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4607554.393357424</v>
+        <v>4780926.288255369</v>
       </c>
     </row>
     <row r="11">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
     </row>
     <row r="26">
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
     </row>
     <row r="27">
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
     </row>
     <row r="34">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>24.54388546188549</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>24.5438854618855</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2.278171868451217</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>29.8649641110337</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>57.45175635361618</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13.82416306385943</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>41.41095530644191</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>68.9977475490244</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>28.70141011096966</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.28820235355214</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.28820235355214</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>16.78661878212736</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>44.37341102470985</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>71.96020326729233</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>71.96020326729233</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.632469320814423</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>33.21926156339691</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>60.80605380597939</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>88.39284604856186</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>16.78661878212736</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>44.37341102470985</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>71.96020326729233</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>13.82416306385943</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>41.41095530644191</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>68.9977475490244</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>29.8649641110337</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>57.45175635361618</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.632469320814423</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>33.21926156339691</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>60.80605380597939</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>88.39284604856186</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.278171868451217</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>29.8649641110337</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>57.45175635361618</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>28.70141011096966</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.28820235355214</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>27.02103923362838</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>16.78661878212736</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>44.37341102470985</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>71.96020326729233</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>99.54699550987482</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>5.632469320814423</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>33.21926156339691</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>60.80605380597939</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>88.39284604856186</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>28.70141011096966</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>56.28820235355214</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>55.16795510199128</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16.78661878212736</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.37341102470985</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>44.37341102470985</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>57.45175635361618</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>85.03854859619867</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>83.31487097035419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.81602797935683</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.40282022193931</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>84.9896124645218</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>86.66998334186306</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.52306747350016</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>30.37615160513725</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.229235736774342</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.70141011096966</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>56.28820235355214</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.87499459613463</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>111.4617868387171</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M2" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N2" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O2" t="n">
         <v>246.758517458259</v>
@@ -8060,22 +8060,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L3" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8221,13 +8221,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M5" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N5" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8297,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L6" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M6" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O6" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P6" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8935,16 +8935,16 @@
         <v>80.69006165554137</v>
       </c>
       <c r="M14" t="n">
-        <v>50.7562573852241</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N14" t="n">
         <v>45.89184343902701</v>
       </c>
       <c r="O14" t="n">
-        <v>59.76771866433623</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P14" t="n">
-        <v>93.52675000186335</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q14" t="n">
         <v>129.5990890302214</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>54.865789686125</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L15" t="n">
         <v>16.68948144623957</v>
@@ -9026,7 +9026,7 @@
         <v>29.46478203976346</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.213011969896</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9093,7 +9093,7 @@
         <v>77.10433979128307</v>
       </c>
       <c r="M16" t="n">
-        <v>77.28045762788422</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N16" t="n">
         <v>65.75988935332771</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K17" t="n">
-        <v>101.6976762459175</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L17" t="n">
-        <v>80.69006165554137</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M17" t="n">
-        <v>50.75625738522407</v>
+        <v>41.06296488573625</v>
       </c>
       <c r="N17" t="n">
-        <v>45.89184343902701</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O17" t="n">
-        <v>59.7677186643362</v>
+        <v>50.46651067918273</v>
       </c>
       <c r="P17" t="n">
-        <v>93.52675000186332</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q17" t="n">
-        <v>129.5990890302214</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9245,10 +9245,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>54.86578968612498</v>
+        <v>50.09627633166346</v>
       </c>
       <c r="L18" t="n">
-        <v>16.68948144623957</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.027508785057847</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46478203976346</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.21301196989599</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>77.10433979128307</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M19" t="n">
-        <v>77.2804576278842</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N19" t="n">
-        <v>65.75988935332771</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O19" t="n">
-        <v>85.77219275774588</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K20" t="n">
-        <v>101.6976762459175</v>
+        <v>94.67555438174873</v>
       </c>
       <c r="L20" t="n">
-        <v>80.69006165554137</v>
+        <v>71.97849854454967</v>
       </c>
       <c r="M20" t="n">
-        <v>50.7562573852241</v>
+        <v>41.06296488573628</v>
       </c>
       <c r="N20" t="n">
-        <v>45.89184343902701</v>
+        <v>36.04170333287217</v>
       </c>
       <c r="O20" t="n">
-        <v>59.76771866433623</v>
+        <v>50.46651067918276</v>
       </c>
       <c r="P20" t="n">
-        <v>93.52675000186335</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q20" t="n">
-        <v>129.5990890302214</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,10 +9482,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>54.865789686125</v>
+        <v>50.09627633166347</v>
       </c>
       <c r="L21" t="n">
-        <v>16.68948144623957</v>
+        <v>10.27628214666009</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.027508785057847</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46478203976346</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.213011969896</v>
+        <v>77.44269074143502</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>77.10433979128307</v>
+        <v>73.4228322427479</v>
       </c>
       <c r="M22" t="n">
-        <v>77.28045762788422</v>
+        <v>73.39882410340141</v>
       </c>
       <c r="N22" t="n">
-        <v>65.75988935332771</v>
+        <v>61.97055239817958</v>
       </c>
       <c r="O22" t="n">
-        <v>85.77219275774588</v>
+        <v>82.2721267577077</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>109.5746066315038</v>
+        <v>94.8701793129654</v>
       </c>
       <c r="K23" t="n">
-        <v>101.6976762459175</v>
+        <v>79.65955142498606</v>
       </c>
       <c r="L23" t="n">
-        <v>80.69006165554137</v>
+        <v>53.34981907087592</v>
       </c>
       <c r="M23" t="n">
-        <v>50.7562573852241</v>
+        <v>20.38440004504894</v>
       </c>
       <c r="N23" t="n">
-        <v>45.89184343902701</v>
+        <v>42.8437541317976</v>
       </c>
       <c r="O23" t="n">
-        <v>59.76771866433623</v>
+        <v>58.44238991792466</v>
       </c>
       <c r="P23" t="n">
-        <v>93.52675000186335</v>
+        <v>96.47854521222783</v>
       </c>
       <c r="Q23" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9716,13 +9716,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K24" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L24" t="n">
-        <v>16.68948144623957</v>
+        <v>8.274438124287887</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.027508785057847</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46478203976346</v>
+        <v>11.7636752123488</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.213011969896</v>
+        <v>97.24573753700841</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>77.10433979128307</v>
+        <v>92.28992028114061</v>
       </c>
       <c r="M25" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N25" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O25" t="n">
-        <v>85.77219275774588</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315038</v>
+        <v>94.8701793129654</v>
       </c>
       <c r="K26" t="n">
-        <v>101.6976762459175</v>
+        <v>79.65955142498606</v>
       </c>
       <c r="L26" t="n">
-        <v>80.69006165554137</v>
+        <v>81.2152657805552</v>
       </c>
       <c r="M26" t="n">
-        <v>50.75625738522407</v>
+        <v>48.20041631869097</v>
       </c>
       <c r="N26" t="n">
-        <v>45.89184343902701</v>
+        <v>14.97830742211829</v>
       </c>
       <c r="O26" t="n">
-        <v>59.7677186643362</v>
+        <v>58.44238991792469</v>
       </c>
       <c r="P26" t="n">
-        <v>93.52675000186332</v>
+        <v>95.35266857749328</v>
       </c>
       <c r="Q26" t="n">
-        <v>129.5990890302214</v>
+        <v>110.8899743087107</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9953,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K27" t="n">
-        <v>54.86578968612498</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L27" t="n">
-        <v>16.68948144623957</v>
+        <v>24.42783702883071</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.027508785057847</v>
+        <v>11.71204780513644</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46478203976346</v>
+        <v>11.7636752123488</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.21301196989599</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>77.10433979128307</v>
+        <v>93.41579691587512</v>
       </c>
       <c r="M28" t="n">
-        <v>77.2804576278842</v>
+        <v>91.83796567423299</v>
       </c>
       <c r="N28" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77219275774588</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>101.6976762459175</v>
+        <v>107.5249981346653</v>
       </c>
       <c r="L29" t="n">
-        <v>80.69006165554137</v>
+        <v>81.2152657805552</v>
       </c>
       <c r="M29" t="n">
-        <v>50.7562573852241</v>
+        <v>20.33496960901169</v>
       </c>
       <c r="N29" t="n">
-        <v>45.89184343902701</v>
+        <v>28.18875724929641</v>
       </c>
       <c r="O29" t="n">
-        <v>59.76771866433623</v>
+        <v>30.57694320824541</v>
       </c>
       <c r="P29" t="n">
-        <v>93.52675000186335</v>
+        <v>68.61309850254852</v>
       </c>
       <c r="Q29" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10190,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K30" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L30" t="n">
-        <v>16.68948144623957</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.027508785057847</v>
+        <v>12.83792443987096</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46478203976346</v>
+        <v>35.065635606445</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.213011969896</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>77.10433979128307</v>
+        <v>93.41579691587512</v>
       </c>
       <c r="M31" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N31" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77219275774588</v>
+        <v>101.5272067565664</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,25 +10351,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>101.6976762459175</v>
+        <v>107.5249981346653</v>
       </c>
       <c r="L32" t="n">
-        <v>80.69006165554137</v>
+        <v>81.2152657805552</v>
       </c>
       <c r="M32" t="n">
-        <v>50.7562573852241</v>
+        <v>33.54541943618981</v>
       </c>
       <c r="N32" t="n">
-        <v>45.89184343902701</v>
+        <v>14.97830742211829</v>
       </c>
       <c r="O32" t="n">
-        <v>59.76771866433623</v>
+        <v>30.57694320824541</v>
       </c>
       <c r="P32" t="n">
-        <v>93.52675000186335</v>
+        <v>68.61309850254852</v>
       </c>
       <c r="Q32" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K33" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L33" t="n">
-        <v>16.68948144623957</v>
+        <v>8.274438124287887</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>7.027508785057847</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46478203976346</v>
+        <v>39.62912192202808</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.213011969896</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>77.10433979128307</v>
+        <v>93.41579691587512</v>
       </c>
       <c r="M34" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N34" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O34" t="n">
-        <v>85.77219275774588</v>
+        <v>101.5272067565664</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>94.8701793129654</v>
       </c>
       <c r="K35" t="n">
-        <v>101.6976762459175</v>
+        <v>79.65955142498606</v>
       </c>
       <c r="L35" t="n">
-        <v>80.69006165554137</v>
+        <v>53.34981907087592</v>
       </c>
       <c r="M35" t="n">
-        <v>50.7562573852241</v>
+        <v>48.20041631869097</v>
       </c>
       <c r="N35" t="n">
-        <v>45.89184343902701</v>
+        <v>15.02773785815554</v>
       </c>
       <c r="O35" t="n">
-        <v>59.76771866433623</v>
+        <v>58.44238991792466</v>
       </c>
       <c r="P35" t="n">
-        <v>93.52675000186335</v>
+        <v>96.47854521222783</v>
       </c>
       <c r="Q35" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K36" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L36" t="n">
-        <v>16.68948144623957</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.027508785057847</v>
+        <v>12.83792443987096</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46478203976346</v>
+        <v>35.065635606445</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.213011969896</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>77.10433979128307</v>
+        <v>93.41579691587512</v>
       </c>
       <c r="M37" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N37" t="n">
-        <v>65.75988935332771</v>
+        <v>80.60705960646905</v>
       </c>
       <c r="O37" t="n">
-        <v>85.77219275774588</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>94.8701793129654</v>
       </c>
       <c r="K38" t="n">
-        <v>101.6976762459175</v>
+        <v>79.65955142498606</v>
       </c>
       <c r="L38" t="n">
-        <v>80.69006165554137</v>
+        <v>53.34981907087592</v>
       </c>
       <c r="M38" t="n">
-        <v>50.7562573852241</v>
+        <v>20.38440004504894</v>
       </c>
       <c r="N38" t="n">
-        <v>45.89184343902701</v>
+        <v>42.8437541317976</v>
       </c>
       <c r="O38" t="n">
-        <v>59.76771866433623</v>
+        <v>58.44238991792466</v>
       </c>
       <c r="P38" t="n">
-        <v>93.52675000186335</v>
+        <v>96.47854521222783</v>
       </c>
       <c r="Q38" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K39" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L39" t="n">
-        <v>16.68948144623957</v>
+        <v>24.42783702883071</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.027508785057847</v>
+        <v>11.71204780513644</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46478203976346</v>
+        <v>11.7636752123488</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.213011969896</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>77.10433979128307</v>
+        <v>92.28992028114061</v>
       </c>
       <c r="M40" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N40" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O40" t="n">
-        <v>85.77219275774588</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,25 +11062,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>101.6976762459175</v>
+        <v>107.5249981346653</v>
       </c>
       <c r="L41" t="n">
-        <v>80.69006165554137</v>
+        <v>81.2152657805552</v>
       </c>
       <c r="M41" t="n">
-        <v>50.7562573852241</v>
+        <v>48.20041631869097</v>
       </c>
       <c r="N41" t="n">
-        <v>45.89184343902701</v>
+        <v>27.01345017852464</v>
       </c>
       <c r="O41" t="n">
-        <v>59.76771866433623</v>
+        <v>30.57694320824541</v>
       </c>
       <c r="P41" t="n">
-        <v>93.52675000186335</v>
+        <v>68.61309850254852</v>
       </c>
       <c r="Q41" t="n">
-        <v>129.5990890302214</v>
+        <v>110.8899743087107</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K42" t="n">
-        <v>54.865789686125</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L42" t="n">
-        <v>16.68948144623957</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>7.027508785057847</v>
+        <v>12.83792443987096</v>
       </c>
       <c r="P42" t="n">
-        <v>29.46478203976346</v>
+        <v>35.065635606445</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.213011969896</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>77.10433979128307</v>
+        <v>92.28992028114061</v>
       </c>
       <c r="M43" t="n">
-        <v>77.28045762788422</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N43" t="n">
-        <v>65.75988935332771</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O43" t="n">
-        <v>85.77219275774588</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>97.38162427947184</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>83.42355640483251</v>
+        <v>107.5249981346653</v>
       </c>
       <c r="L44" t="n">
-        <v>58.01940008446331</v>
+        <v>53.34981907087592</v>
       </c>
       <c r="M44" t="n">
-        <v>25.53077821856496</v>
+        <v>33.54541943618981</v>
       </c>
       <c r="N44" t="n">
-        <v>20.25818964702484</v>
+        <v>42.8437541317976</v>
       </c>
       <c r="O44" t="n">
-        <v>35.5625862733917</v>
+        <v>30.57694320824541</v>
       </c>
       <c r="P44" t="n">
-        <v>72.86822951172195</v>
+        <v>68.61309850254852</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.085400487321</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.18949827734528</v>
+        <v>79.69369886041449</v>
       </c>
       <c r="K45" t="n">
-        <v>42.4537780023314</v>
+        <v>39.89721855137086</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>24.42783702883071</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>11.71204780513644</v>
       </c>
       <c r="P45" t="n">
-        <v>14.78693852483815</v>
+        <v>11.7636752123488</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.40126228781629</v>
+        <v>69.38029082732913</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>67.52371566667536</v>
+        <v>92.28992028114061</v>
       </c>
       <c r="M46" t="n">
-        <v>67.17903279110969</v>
+        <v>92.9638423089675</v>
       </c>
       <c r="N46" t="n">
-        <v>55.89865382137701</v>
+        <v>81.73293624120356</v>
       </c>
       <c r="O46" t="n">
-        <v>76.66374565676749</v>
+        <v>102.6530833913009</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22561,22 +22561,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H2" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I2" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K2" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R2" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S2" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T2" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22640,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H3" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I3" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J3" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R3" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T3" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22719,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H4" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I4" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J4" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K4" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L4" t="n">
-        <v>59.27569846418345</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M4" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N4" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O4" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P4" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q4" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R4" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S4" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T4" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22798,19 +22798,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H5" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I5" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J5" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K5" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R5" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S5" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T5" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H6" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I6" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J6" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R6" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S6" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T6" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H7" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I7" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J7" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K7" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L7" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M7" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N7" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O7" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P7" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R7" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S7" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T7" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23208,7 +23208,7 @@
         <v>77.72166293489558</v>
       </c>
       <c r="L10" t="n">
-        <v>45.83348920913111</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M10" t="n">
         <v>39.64227122411658</v>
@@ -23597,7 +23597,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>6.744564135339218</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>91.54969484442688</v>
       </c>
       <c r="K16" t="n">
-        <v>19.88364031691906</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q16" t="n">
         <v>93.23694401510255</v>
@@ -23746,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.9335161168677</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H17" t="n">
-        <v>337.7565816866972</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I17" t="n">
-        <v>206.1329861685091</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>138.0543947935843</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9021266852166</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5057460574135</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2605703896413</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0607743439406</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I18" t="n">
-        <v>90.69820171619743</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J18" t="n">
-        <v>6.744564135339203</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>104.6672283897153</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S18" t="n">
-        <v>182.6000704870501</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0199265699567</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2164852645116</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I19" t="n">
-        <v>152.6495179793835</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J19" t="n">
-        <v>91.54969484442688</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K19" t="n">
-        <v>19.88364031691904</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.399185363825367</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.23694401510255</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R19" t="n">
-        <v>185.183811174339</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S19" t="n">
-        <v>228.3660933928399</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0276946227434</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.9335161168677</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H20" t="n">
-        <v>337.7565816866972</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I20" t="n">
-        <v>206.1329861685091</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>138.0543947935843</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S20" t="n">
-        <v>206.9021266852166</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5057460574135</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2605703896413</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H21" t="n">
-        <v>121.0607743439406</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I21" t="n">
-        <v>90.69820171619743</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J21" t="n">
-        <v>6.744564135339218</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>104.6672283897153</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S21" t="n">
-        <v>182.6000704870501</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0199265699567</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2164852645116</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I22" t="n">
-        <v>152.6495179793835</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J22" t="n">
-        <v>91.54969484442688</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.88364031691906</v>
+        <v>17.00668871668185</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9.399185363825382</v>
+        <v>6.404274245706773</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.23694401510255</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R22" t="n">
-        <v>185.183811174339</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S22" t="n">
-        <v>228.3660933928399</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T22" t="n">
-        <v>222.0276946227434</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24208,7 +24208,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>322.3400506714995</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
@@ -24220,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H23" t="n">
-        <v>337.7565816866972</v>
+        <v>311.4383936132742</v>
       </c>
       <c r="I23" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9021266852166</v>
+        <v>175.0887321410044</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>310.0310171160876</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2605703896413</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H24" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I24" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J24" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>104.6672283897153</v>
+        <v>71.04642157509596</v>
       </c>
       <c r="S24" t="n">
-        <v>182.6000704870501</v>
+        <v>153.0128132345324</v>
       </c>
       <c r="T24" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1901266466792</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>238.8391368673323</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>192.7690289775851</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24372,25 +24372,25 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>113.8106945025457</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2172627594565</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I25" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J25" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K25" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,34 +24405,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R25" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S25" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T25" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>262.445260379656</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>197.375569946357</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>189.2758261044891</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H26" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I26" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>293.0143368994727</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>313.3525783638814</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>331.9172675850268</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>354.4201207087706</v>
       </c>
     </row>
     <row r="27">
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2605703896413</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H27" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I27" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J27" t="n">
-        <v>6.744564135339203</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>104.6672283897153</v>
+        <v>71.04642157509596</v>
       </c>
       <c r="S27" t="n">
-        <v>182.6000704870501</v>
+        <v>153.0128132345324</v>
       </c>
       <c r="T27" t="n">
-        <v>213.0199265699567</v>
+        <v>184.7808449396473</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1962251491922</v>
+        <v>212.6462411847937</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24612,22 +24612,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>111.0614355087674</v>
       </c>
       <c r="G28" t="n">
-        <v>168.2949770100594</v>
+        <v>143.673377297571</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I28" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J28" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K28" t="n">
-        <v>19.88364031691904</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>9.399185363825367</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R28" t="n">
-        <v>185.183811174339</v>
+        <v>153.824049160279</v>
       </c>
       <c r="S28" t="n">
-        <v>228.3660933928399</v>
+        <v>199.1462992431085</v>
       </c>
       <c r="T28" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I29" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S29" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0781689449873</v>
+        <v>222.1988621880557</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>296.3358981472665</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>310.0310171160876</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>331.9172675850268</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24764,7 +24764,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>134.6284296146931</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2605703896413</v>
+        <v>120.3024264417644</v>
       </c>
       <c r="H30" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I30" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J30" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>104.6672283897153</v>
+        <v>71.04642157509596</v>
       </c>
       <c r="S30" t="n">
-        <v>182.6000704870501</v>
+        <v>153.0128132345324</v>
       </c>
       <c r="T30" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1901266466792</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24837,34 +24837,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>153.0730352030826</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>117.3172035410314</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>113.8106945025457</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.2949770100594</v>
+        <v>140.3518160497772</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I31" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J31" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K31" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R31" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S31" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T31" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24925,19 +24925,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>343.6134653519568</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>375.3338029303342</v>
       </c>
       <c r="G32" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H32" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I32" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S32" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5057460574135</v>
+        <v>193.2034561349392</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0781689449873</v>
+        <v>222.1988621880557</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2605703896413</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H33" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I33" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J33" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>104.6672283897153</v>
+        <v>71.04642157509596</v>
       </c>
       <c r="S33" t="n">
-        <v>182.6000704870501</v>
+        <v>180.8782599442117</v>
       </c>
       <c r="T33" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1962251491922</v>
+        <v>212.6462411847937</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>238.8391368673323</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>195.5188394243463</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>149.7514739552888</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>138.5917342622931</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.2949770100594</v>
+        <v>140.3518160497772</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I34" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J34" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K34" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,28 +25116,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R34" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S34" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T34" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>265.7668216274498</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25162,19 +25162,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>343.6134653519568</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>375.3338029303342</v>
       </c>
       <c r="G35" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H35" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I35" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>335.2388288328206</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>354.4201207087706</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>131.3068683668993</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2605703896413</v>
+        <v>123.6239876895581</v>
       </c>
       <c r="H36" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I36" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J36" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>104.6672283897153</v>
+        <v>71.04642157509596</v>
       </c>
       <c r="S36" t="n">
-        <v>182.6000704870501</v>
+        <v>180.8782599442117</v>
       </c>
       <c r="T36" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1901266466792</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>238.8391368673323</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25311,34 +25311,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>153.0730352030826</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>117.3172035410314</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>113.8106945025457</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.2949770100594</v>
+        <v>140.3518160497772</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I37" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J37" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K37" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R37" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S37" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T37" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>346.2217936681541</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>375.3338029303342</v>
       </c>
       <c r="G38" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H38" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I38" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>138.0543947935843</v>
+        <v>99.30599566872203</v>
       </c>
       <c r="S38" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>357.7416819565644</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2605703896413</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H39" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I39" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J39" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>104.6672283897153</v>
+        <v>98.91186828477524</v>
       </c>
       <c r="S39" t="n">
-        <v>182.6000704870501</v>
+        <v>153.0128132345324</v>
       </c>
       <c r="T39" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1901266466792</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>212.783474205723</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>238.8391368673323</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>192.7690289775851</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -25560,22 +25560,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>111.0614355087674</v>
       </c>
       <c r="G40" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2172627594565</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I40" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J40" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K40" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,31 +25590,31 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R40" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S40" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T40" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6344225367242</v>
+        <v>260.7647368679211</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>262.445260379656</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>197.375569946357</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>346.2217936681541</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>325.6616119192933</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.9335161168677</v>
+        <v>417.7602655262135</v>
       </c>
       <c r="H41" t="n">
-        <v>337.7565816866972</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I41" t="n">
-        <v>206.1329861685091</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>138.0543947935843</v>
+        <v>127.1714423784013</v>
       </c>
       <c r="S41" t="n">
-        <v>206.9021266852166</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5057460574135</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>293.0143368994727</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>331.9172675850268</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25712,7 +25712,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>131.3068683668993</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2605703896413</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H42" t="n">
-        <v>121.0607743439406</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I42" t="n">
-        <v>90.69820171619743</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J42" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>104.6672283897153</v>
+        <v>98.91186828477524</v>
       </c>
       <c r="S42" t="n">
-        <v>182.6000704870501</v>
+        <v>180.8782599442117</v>
       </c>
       <c r="T42" t="n">
-        <v>213.0199265699567</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1901266466792</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>212.783474205723</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>242.1606981151261</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>189.4474677297913</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25797,22 +25797,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>111.0614355087674</v>
       </c>
       <c r="G43" t="n">
-        <v>168.2949770100594</v>
+        <v>168.2172627594565</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2164852645116</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I43" t="n">
-        <v>152.6495179793835</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J43" t="n">
-        <v>91.54969484442688</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K43" t="n">
-        <v>19.88364031691906</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,31 +25827,31 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.23694401510255</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R43" t="n">
-        <v>185.183811174339</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S43" t="n">
-        <v>228.3660933928399</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T43" t="n">
-        <v>222.0276946227434</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6344225367242</v>
+        <v>260.7647368679211</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>262.445260379656</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>197.375569946357</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25867,25 +25867,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>325.6616119192933</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>343.6134653519568</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.7898558879744</v>
+        <v>389.8948188165342</v>
       </c>
       <c r="H44" t="n">
-        <v>336.2853213675438</v>
+        <v>335.9822790751597</v>
       </c>
       <c r="I44" t="n">
-        <v>200.5945251941005</v>
+        <v>199.4537427723124</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>129.0301979403661</v>
+        <v>99.30599566872203</v>
       </c>
       <c r="S44" t="n">
-        <v>203.6284692193107</v>
+        <v>202.9541788506836</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8768734054331</v>
+        <v>217.7473415968247</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0643088977349</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1837053907575</v>
+        <v>148.1678731514436</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3184202757733</v>
+        <v>120.1655141750314</v>
       </c>
       <c r="I45" t="n">
-        <v>88.05175328971565</v>
+        <v>87.50665206772472</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>99.89485591515788</v>
+        <v>74.36798282288973</v>
       </c>
       <c r="S45" t="n">
-        <v>181.1723368455023</v>
+        <v>153.0128132345324</v>
       </c>
       <c r="T45" t="n">
-        <v>212.7101066841048</v>
+        <v>212.6462916493265</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1911682413709</v>
+        <v>209.3246799369999</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>238.8391368673323</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -26025,31 +26025,31 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>141.9132955100868</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>117.3172035410314</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>113.8106945025457</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>111.0614355087674</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2305359770579</v>
+        <v>168.2172627594565</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6435458983708</v>
+        <v>161.5255349273332</v>
       </c>
       <c r="I46" t="n">
-        <v>150.711600368756</v>
+        <v>150.3124385157985</v>
       </c>
       <c r="J46" t="n">
-        <v>86.99371381121946</v>
+        <v>86.05529732680284</v>
       </c>
       <c r="K46" t="n">
-        <v>12.39676393728799</v>
+        <v>10.85465738323833</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.605335336077985</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.84088624258442</v>
+        <v>86.72943526689181</v>
       </c>
       <c r="R46" t="n">
-        <v>182.2863079995616</v>
+        <v>181.6894958699583</v>
       </c>
       <c r="S46" t="n">
-        <v>227.2430619358953</v>
+        <v>227.0117459527878</v>
       </c>
       <c r="T46" t="n">
-        <v>221.7523556635551</v>
+        <v>221.6956428247129</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6301835776003</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338464.1992716803</v>
+        <v>361478.1971124064</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351765.2743621995</v>
+        <v>361478.1971124064</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>414403.5922161597</v>
+        <v>414954.4202647702</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>414403.5922161597</v>
+        <v>414954.4202647702</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.854407255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.854407255</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.854407255</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.854407255</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.854407255</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.8544072551</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414403.5922161597</v>
+        <v>440899.8544072551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415885.4946851619</v>
+        <v>440899.8544072551</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68750.54047706009</v>
+        <v>74514.21183964789</v>
       </c>
       <c r="C2" t="n">
-        <v>72033.99017712972</v>
+        <v>74514.21183964789</v>
       </c>
       <c r="D2" t="n">
-        <v>74514.21183964789</v>
+        <v>74514.21183964785</v>
       </c>
       <c r="E2" t="n">
+        <v>91220.32071416064</v>
+      </c>
+      <c r="F2" t="n">
         <v>91220.32071416061</v>
       </c>
-      <c r="F2" t="n">
-        <v>91220.32071416065</v>
-      </c>
       <c r="G2" t="n">
-        <v>91220.32071416064</v>
+        <v>91607.58867732958</v>
       </c>
       <c r="H2" t="n">
-        <v>91220.32071416061</v>
+        <v>91607.58867732955</v>
       </c>
       <c r="I2" t="n">
-        <v>91220.32071416063</v>
+        <v>97539.22738034352</v>
       </c>
       <c r="J2" t="n">
-        <v>91220.32071416063</v>
+        <v>97539.22738034351</v>
       </c>
       <c r="K2" t="n">
-        <v>91220.32071416064</v>
+        <v>97539.22738034354</v>
       </c>
       <c r="L2" t="n">
-        <v>91220.32071416063</v>
+        <v>97539.22738034352</v>
       </c>
       <c r="M2" t="n">
-        <v>91220.32071416063</v>
+        <v>97539.22738034352</v>
       </c>
       <c r="N2" t="n">
-        <v>91220.32071416063</v>
+        <v>97539.22738034349</v>
       </c>
       <c r="O2" t="n">
-        <v>91220.32071416064</v>
+        <v>97539.22738034352</v>
       </c>
       <c r="P2" t="n">
-        <v>92221.00202031924</v>
+        <v>97539.22738034349</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>48314.68404061477</v>
       </c>
       <c r="C3" t="n">
-        <v>24387.74936889624</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20003.33720355308</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>221791.9948361786</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10676.39597790543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>29513.84638150455</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23784.67912583795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534005</v>
+        <v>34762.03750779631</v>
       </c>
       <c r="C4" t="n">
-        <v>35923.93281632338</v>
+        <v>34762.03750779631</v>
       </c>
       <c r="D4" t="n">
-        <v>34762.0375077963</v>
+        <v>34762.03750779631</v>
       </c>
       <c r="E4" t="n">
         <v>14437.57062330154</v>
@@ -26432,34 +26432,34 @@
         <v>14437.57062330154</v>
       </c>
       <c r="G4" t="n">
-        <v>14437.57062330154</v>
+        <v>13290.37760263282</v>
       </c>
       <c r="H4" t="n">
-        <v>14437.57062330154</v>
+        <v>13290.37760263282</v>
       </c>
       <c r="I4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623743</v>
       </c>
       <c r="J4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623743</v>
       </c>
       <c r="K4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623744</v>
       </c>
       <c r="L4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623744</v>
       </c>
       <c r="M4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623743</v>
       </c>
       <c r="N4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623744</v>
       </c>
       <c r="O4" t="n">
-        <v>14437.57062330154</v>
+        <v>13252.02099623744</v>
       </c>
       <c r="P4" t="n">
-        <v>11531.87044222373</v>
+        <v>13252.02099623744</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>34720.63227756931</v>
       </c>
       <c r="C5" t="n">
-        <v>34211.44775812258</v>
+        <v>34720.63227756931</v>
       </c>
       <c r="D5" t="n">
         <v>34720.63227756931</v>
@@ -26484,34 +26484,34 @@
         <v>7111.264083311508</v>
       </c>
       <c r="G5" t="n">
-        <v>7111.264083311508</v>
+        <v>7410.620126973125</v>
       </c>
       <c r="H5" t="n">
-        <v>7111.264083311508</v>
+        <v>7410.620126973124</v>
       </c>
       <c r="I5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="J5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="K5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="L5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="M5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="N5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="O5" t="n">
-        <v>7111.264083311508</v>
+        <v>9744.977883730167</v>
       </c>
       <c r="P5" t="n">
-        <v>7890.297589542603</v>
+        <v>9744.977883730167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1896.581318279961</v>
+        <v>-59644.24325859222</v>
       </c>
       <c r="C6" t="n">
-        <v>-22489.13976621249</v>
+        <v>-11329.55921797745</v>
       </c>
       <c r="D6" t="n">
-        <v>-14971.79514927079</v>
+        <v>-11329.55921797749</v>
       </c>
       <c r="E6" t="n">
-        <v>-152120.508828631</v>
+        <v>-167196.5248028513</v>
       </c>
       <c r="F6" t="n">
-        <v>69671.4860075476</v>
+        <v>54595.47003332729</v>
       </c>
       <c r="G6" t="n">
-        <v>69671.48600754759</v>
+        <v>45183.96883891863</v>
       </c>
       <c r="H6" t="n">
-        <v>69671.48600754756</v>
+        <v>55860.36481682402</v>
       </c>
       <c r="I6" t="n">
-        <v>69671.48600754757</v>
+        <v>30438.43588820362</v>
       </c>
       <c r="J6" t="n">
-        <v>69671.48600754757</v>
+        <v>59952.28226970816</v>
       </c>
       <c r="K6" t="n">
-        <v>69671.48600754759</v>
+        <v>59952.28226970819</v>
       </c>
       <c r="L6" t="n">
-        <v>69671.48600754757</v>
+        <v>59952.28226970817</v>
       </c>
       <c r="M6" t="n">
-        <v>69671.48600754757</v>
+        <v>59952.28226970817</v>
       </c>
       <c r="N6" t="n">
-        <v>69671.48600754757</v>
+        <v>59952.28226970814</v>
       </c>
       <c r="O6" t="n">
-        <v>69671.48600754759</v>
+        <v>59952.28226970817</v>
       </c>
       <c r="P6" t="n">
-        <v>49014.15486271496</v>
+        <v>59952.28226970814</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="C3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="D3" t="n">
         <v>50.1390953013448</v>
@@ -26752,34 +26752,34 @@
         <v>326.2047744638306</v>
       </c>
       <c r="G3" t="n">
-        <v>326.2047744638306</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="H3" t="n">
-        <v>326.2047744638306</v>
+        <v>339.9367030721616</v>
       </c>
       <c r="I3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="J3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="K3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="L3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="M3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="N3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="O3" t="n">
-        <v>326.2047744638306</v>
+        <v>369.3008588890673</v>
       </c>
       <c r="P3" t="n">
-        <v>361.9402564010368</v>
+        <v>369.3008588890673</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="C3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.35708804801542</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>276.0656791624858</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.73192860833097</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>29.36415581690568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>35.7354819372062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H5" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I5" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J5" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K5" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M5" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N5" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O5" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R5" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S5" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H6" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I6" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J6" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K6" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L6" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M6" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N6" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O6" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P6" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R6" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S6" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I7" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J7" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K7" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L7" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M7" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N7" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O7" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P7" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R7" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S7" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2015642022164613</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H8" t="n">
         <v>2.064269385949336</v>
@@ -31612,10 +31612,10 @@
         <v>23.41637653672712</v>
       </c>
       <c r="M9" t="n">
-        <v>27.32580693923291</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N9" t="n">
-        <v>28.04903973843816</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O9" t="n">
         <v>25.65939153596275</v>
@@ -31676,10 +31676,10 @@
         <v>0.09041476201881848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8038694295854958</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I10" t="n">
-        <v>2.719018479620469</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J10" t="n">
         <v>6.392323674730466</v>
@@ -31694,7 +31694,7 @@
         <v>14.17292492264079</v>
       </c>
       <c r="N10" t="n">
-        <v>13.8359244460252</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O10" t="n">
         <v>12.779715635169</v>
@@ -31703,10 +31703,10 @@
         <v>10.9352544899851</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.571003390503064</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R10" t="n">
-        <v>4.065376481318873</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S10" t="n">
         <v>1.575682716273409</v>
@@ -32007,7 +32007,7 @@
         <v>206.944964607843</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N14" t="n">
         <v>233.9920941488139</v>
@@ -32071,13 +32071,13 @@
         <v>0.7016480054505037</v>
       </c>
       <c r="H15" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I15" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K15" t="n">
         <v>113.300765862593</v>
@@ -32098,7 +32098,7 @@
         <v>133.9839950057194</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R15" t="n">
         <v>43.5637244085848</v>
@@ -32110,7 +32110,7 @@
         <v>2.828133846530757</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32159,13 +32159,13 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L16" t="n">
         <v>87.45496527182765</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N16" t="n">
         <v>90.01647489425679</v>
@@ -32174,7 +32174,7 @@
         <v>83.1447841535023</v>
       </c>
       <c r="P16" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q16" t="n">
         <v>49.25692094403843</v>
@@ -32189,7 +32189,7 @@
         <v>2.513381049147547</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311375977744042</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H17" t="n">
-        <v>13.43012923207117</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55682238197722</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3013968910535</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8119420289588</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L17" t="n">
-        <v>206.944964607843</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2661471520487</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N17" t="n">
-        <v>233.9920941488139</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9520992701216</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5775048195655</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.613852616607</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R17" t="n">
-        <v>82.37572126196423</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88298009284238</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740548342574546</v>
+        <v>5.982202684214622</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H18" t="n">
-        <v>6.776442578956182</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15761773151954</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J18" t="n">
-        <v>66.29034949740922</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K18" t="n">
-        <v>113.300765862593</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L18" t="n">
-        <v>152.3468618852069</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32329,25 +32329,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>166.9399094371643</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9839950057194</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.56475241505028</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R18" t="n">
-        <v>43.5637244085848</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03280396088983</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T18" t="n">
-        <v>2.828133846530757</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229971629928304</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68992449059593</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58843493451165</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K19" t="n">
-        <v>68.34257405979926</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45496527182765</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20899878819395</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01647489425679</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O19" t="n">
-        <v>83.1447841535023</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P19" t="n">
-        <v>71.14472654863609</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.25692094403843</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R19" t="n">
-        <v>26.4493248278378</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25138610896989</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513381049147547</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208571552103255</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311375977744042</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H20" t="n">
-        <v>13.43012923207117</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55682238197722</v>
+        <v>52.6850643022694</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3013968910535</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8119420289588</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L20" t="n">
-        <v>206.944964607843</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2661471520486</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N20" t="n">
-        <v>233.9920941488139</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9520992701216</v>
+        <v>230.253307255275</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5775048195655</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.613852616607</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R20" t="n">
-        <v>82.37572126196423</v>
+        <v>85.84341276123286</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88298009284238</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740548342574546</v>
+        <v>5.982202684214621</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H21" t="n">
-        <v>6.776442578956181</v>
+        <v>7.061703963819811</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15761773151954</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J21" t="n">
-        <v>66.29034949740921</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K21" t="n">
-        <v>113.300765862593</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L21" t="n">
-        <v>152.3468618852069</v>
+        <v>158.7600611847864</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32566,25 +32566,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>166.9399094371643</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9839950057194</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.56475241505026</v>
+        <v>93.33507364351125</v>
       </c>
       <c r="R21" t="n">
-        <v>43.5637244085848</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03280396088983</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T21" t="n">
-        <v>2.828133846530757</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04810425043473987</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229971629928304</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68992449059593</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58843493451165</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K22" t="n">
-        <v>68.34257405979925</v>
+        <v>71.21952566003645</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45496527182765</v>
+        <v>91.13647282036281</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20899878819394</v>
+        <v>96.09063231267675</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01647489425679</v>
+        <v>93.80581184940492</v>
       </c>
       <c r="O22" t="n">
-        <v>83.1447841535023</v>
+        <v>86.64485015354049</v>
       </c>
       <c r="P22" t="n">
-        <v>71.14472654863607</v>
+        <v>74.13963766675468</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.25692094403843</v>
+        <v>51.3304421638964</v>
       </c>
       <c r="R22" t="n">
-        <v>26.4493248278378</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25138610896989</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513381049147547</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03343639702349134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H23" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I23" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L23" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N23" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O23" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R23" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S23" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T23" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H24" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I24" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J24" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K24" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L24" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O24" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R24" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T24" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H25" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I25" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K25" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L25" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O25" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P25" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R25" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T25" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H26" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I26" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K26" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L26" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M26" t="n">
-        <v>230.2661471520487</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N26" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O26" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P26" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R26" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S26" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T26" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H27" t="n">
-        <v>6.776442578956182</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I27" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J27" t="n">
-        <v>66.29034949740922</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K27" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L27" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O27" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.56475241505028</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R27" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T27" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H28" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I28" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J28" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K28" t="n">
-        <v>68.34257405979926</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L28" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M28" t="n">
-        <v>92.20899878819395</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N28" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O28" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P28" t="n">
-        <v>71.14472654863609</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R28" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T28" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03208571552103255</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H29" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I29" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L29" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N29" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O29" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P29" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R29" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S29" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T29" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H30" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I30" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J30" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K30" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L30" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O30" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R30" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T30" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H31" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I31" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K31" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L31" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M31" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O31" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P31" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R31" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T31" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H32" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I32" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L32" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N32" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O32" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P32" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R32" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S32" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T32" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H33" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I33" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J33" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K33" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L33" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O33" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R33" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T33" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H34" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I34" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K34" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L34" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M34" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O34" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P34" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R34" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T34" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H35" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I35" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L35" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N35" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O35" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P35" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R35" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S35" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T35" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H36" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I36" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J36" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K36" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L36" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O36" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R36" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T36" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H37" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I37" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K37" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L37" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M37" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O37" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P37" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R37" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T37" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H38" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I38" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L38" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M38" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N38" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O38" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P38" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R38" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S38" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T38" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H39" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J39" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K39" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L39" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O39" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R39" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T39" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H40" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I40" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K40" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L40" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M40" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N40" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O40" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P40" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R40" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T40" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311375977744042</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H41" t="n">
-        <v>13.43012923207117</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I41" t="n">
-        <v>50.55682238197722</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3013968910535</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K41" t="n">
-        <v>166.8119420289588</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L41" t="n">
-        <v>206.944964607843</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2661471520486</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N41" t="n">
-        <v>233.9920941488139</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O41" t="n">
-        <v>220.9520992701216</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P41" t="n">
-        <v>188.5775048195655</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.613852616607</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R41" t="n">
-        <v>82.37572126196423</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S41" t="n">
-        <v>29.88298009284238</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T41" t="n">
-        <v>5.740548342574546</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H42" t="n">
-        <v>6.776442578956181</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I42" t="n">
-        <v>24.15761773151954</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J42" t="n">
-        <v>66.29034949740921</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K42" t="n">
-        <v>113.300765862593</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L42" t="n">
-        <v>152.3468618852069</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O42" t="n">
-        <v>166.9399094371643</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9839950057194</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.56475241505026</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R42" t="n">
-        <v>43.5637244085848</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03280396088983</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T42" t="n">
-        <v>2.828133846530757</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H43" t="n">
-        <v>5.229971629928304</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I43" t="n">
-        <v>17.68992449059593</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58843493451165</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K43" t="n">
-        <v>68.34257405979925</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L43" t="n">
-        <v>87.45496527182765</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M43" t="n">
-        <v>92.20899878819394</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01647489425679</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O43" t="n">
-        <v>83.1447841535023</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P43" t="n">
-        <v>71.14472654863607</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.25692094403843</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R43" t="n">
-        <v>26.4493248278378</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25138610896989</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T43" t="n">
-        <v>2.513381049147547</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03208571552103256</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.455036206637333</v>
+        <v>1.484626568398259</v>
       </c>
       <c r="H44" t="n">
-        <v>14.90138955122459</v>
+        <v>15.20443184360868</v>
       </c>
       <c r="I44" t="n">
-        <v>56.09528335638583</v>
+        <v>57.23606577817394</v>
       </c>
       <c r="J44" t="n">
-        <v>123.4943792430854</v>
+        <v>126.0058242095919</v>
       </c>
       <c r="K44" t="n">
-        <v>185.0860618700438</v>
+        <v>188.8500668498902</v>
       </c>
       <c r="L44" t="n">
-        <v>229.6156261789211</v>
+        <v>234.2852071925085</v>
       </c>
       <c r="M44" t="n">
-        <v>255.4916263187078</v>
+        <v>260.687434928261</v>
       </c>
       <c r="N44" t="n">
-        <v>259.6257479408161</v>
+        <v>264.9056301657226</v>
       </c>
       <c r="O44" t="n">
-        <v>245.1572316610661</v>
+        <v>250.1428747262124</v>
       </c>
       <c r="P44" t="n">
-        <v>209.2360253097069</v>
+        <v>213.4911563188803</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.1275411595074</v>
+        <v>160.3229673381176</v>
       </c>
       <c r="R44" t="n">
-        <v>91.39991811518244</v>
+        <v>93.25867367714724</v>
       </c>
       <c r="S44" t="n">
-        <v>33.15663755874826</v>
+        <v>33.83092792737537</v>
       </c>
       <c r="T44" t="n">
-        <v>6.369420994554928</v>
+        <v>6.498952803163384</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1187701254718607</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7785130043343057</v>
+        <v>0.7943452436481825</v>
       </c>
       <c r="H45" t="n">
-        <v>7.518796647123427</v>
+        <v>7.671702747865343</v>
       </c>
       <c r="I45" t="n">
-        <v>26.80406615800132</v>
+        <v>27.34916737999225</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55240625598807</v>
+        <v>75.04820567291887</v>
       </c>
       <c r="K45" t="n">
-        <v>125.7127775463865</v>
+        <v>128.2693369973471</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>172.4739530122951</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>201.2689680945416</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>188.1023354513459</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>188.9949404920305</v>
       </c>
       <c r="P45" t="n">
-        <v>148.6618385206447</v>
+        <v>151.6851018331341</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.37650209712997</v>
+        <v>101.3974735576171</v>
       </c>
       <c r="R45" t="n">
-        <v>48.33609688314226</v>
+        <v>49.31908451352489</v>
       </c>
       <c r="S45" t="n">
-        <v>14.46053760243764</v>
+        <v>14.75461450372829</v>
       </c>
       <c r="T45" t="n">
-        <v>3.137953732382573</v>
+        <v>3.201768767160875</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.05225955550316992</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6659523684884819</v>
       </c>
       <c r="H46" t="n">
-        <v>5.802910996069086</v>
+        <v>5.920921967106689</v>
       </c>
       <c r="I46" t="n">
-        <v>19.62784210122344</v>
+        <v>20.0270039541809</v>
       </c>
       <c r="J46" t="n">
-        <v>46.14441596771906</v>
+        <v>47.08283245213567</v>
       </c>
       <c r="K46" t="n">
-        <v>75.82945043943032</v>
+        <v>77.37155699347997</v>
       </c>
       <c r="L46" t="n">
-        <v>97.03558939643536</v>
+        <v>99.00895485691487</v>
       </c>
       <c r="M46" t="n">
-        <v>102.3104236249685</v>
+        <v>104.3910608167899</v>
       </c>
       <c r="N46" t="n">
-        <v>99.87771042620749</v>
+        <v>101.9088747160602</v>
       </c>
       <c r="O46" t="n">
-        <v>92.2532312544807</v>
+        <v>94.12934022962655</v>
       </c>
       <c r="P46" t="n">
-        <v>78.93857657638347</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.65297871655656</v>
+        <v>55.76442969224916</v>
       </c>
       <c r="R46" t="n">
-        <v>29.3468280026152</v>
+        <v>29.94364013221846</v>
       </c>
       <c r="S46" t="n">
-        <v>11.37441756591455</v>
+        <v>11.60573354902199</v>
       </c>
       <c r="T46" t="n">
-        <v>2.788720008335857</v>
+        <v>2.845432847178059</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03632467464482633</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.04943043603724753</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>11.71204780513645</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>15.02752226980832</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>14.70442731853841</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.21044982717812</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.437609680848567</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>23.3019603940962</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>14.70442731853841</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>13.21044982717812</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>11.71204780513645</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>15.02752226980832</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.04943043603724753</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3.437609680848567</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>23.3019603940962</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37551,19 +37551,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.04943043603724753</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14.70442731853841</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>12.03514275640635</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.437609680848567</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>23.3019603940962</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>14.70442731853841</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>13.21044982717812</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>26.69013963890751</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.73957007494475</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>26.73957007494477</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>27.86544670967928</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
